--- a/data-xls/files/data.xlsx
+++ b/data-xls/files/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direct Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC-1010101</t>
   </si>
   <si>
     <t xml:space="preserve">ANTON</t>
@@ -283,7 +280,7 @@
   <dimension ref="A1:Y1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +291,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.43"/>
@@ -396,23 +393,23 @@
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3" t="n">
+        <v>1234567</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20160311</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
@@ -424,10 +421,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>123456789</v>
@@ -442,31 +439,31 @@
         <v>123456789</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
